--- a/data/trans_dic/P36$nada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,65</t>
+          <t>0,71; 4,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,3</t>
+          <t>1,84; 6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,65</t>
+          <t>0,7; 4,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,47</t>
+          <t>0,76; 4,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,35</t>
+          <t>1,6; 6,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,49</t>
+          <t>0,37; 3,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,5</t>
+          <t>0,93; 3,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,59</t>
+          <t>2,04; 5,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,13</t>
+          <t>0,81; 3,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,27 +796,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,95</t>
+          <t>2,48; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,42</t>
+          <t>1,35; 4,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,63</t>
+          <t>0,6; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,18</t>
+          <t>1,43; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,74</t>
+          <t>0,99; 3,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,24 +826,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,33</t>
+          <t>2,15; 4,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,42</t>
+          <t>1,46; 3,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,91</t>
+          <t>0,59; 2,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,23</t>
+          <t>0,32; 3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,32</t>
+          <t>0,27; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,22</t>
+          <t>0,29; 3,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,51</t>
+          <t>0,51; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,27; 1,66</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,38</t>
+          <t>1,94; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,33</t>
+          <t>2,08; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,36</t>
+          <t>2,07; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,58</t>
+          <t>0,25; 2,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,72</t>
+          <t>0,28; 2,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,65</t>
+          <t>0,71; 3,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,74</t>
+          <t>1,49; 3,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,3</t>
+          <t>1,49; 4,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,25</t>
+          <t>1,65; 4,24</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,4</t>
+          <t>0,88; 5,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,71</t>
+          <t>1,47; 8,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,3</t>
+          <t>0,47; 4,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,76</t>
+          <t>0,86; 4,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,07</t>
+          <t>0,65; 3,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,38</t>
+          <t>1,42; 5,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,91</t>
+          <t>0,43; 2,71</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,11</t>
+          <t>0,31; 2,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,14</t>
+          <t>1,46; 6,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,25</t>
+          <t>1,13; 5,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,29</t>
+          <t>0,34; 2,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,09</t>
+          <t>0,35; 3,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,34</t>
+          <t>1,44; 6,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,38</t>
+          <t>0,5; 2,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,1</t>
+          <t>1,2; 4,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,69</t>
+          <t>1,72; 4,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,96</t>
+          <t>0,75; 2,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,84</t>
+          <t>1,81; 4,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,19</t>
+          <t>0,77; 3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,36</t>
+          <t>0,91; 3,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,91</t>
+          <t>1,3; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,44</t>
+          <t>0,15; 1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,5</t>
+          <t>0,97; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,77</t>
+          <t>1,9; 3,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,08</t>
+          <t>0,61; 1,94</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,46</t>
+          <t>0,76; 2,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,4</t>
+          <t>0,51; 2,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,73</t>
+          <t>0,78; 2,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,03</t>
+          <t>1,2; 3,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,8</t>
+          <t>0,39; 1,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,19</t>
+          <t>0,12; 1,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,49</t>
+          <t>1,18; 2,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,7</t>
+          <t>0,58; 1,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,59</t>
+          <t>0,55; 1,64</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,6</t>
+          <t>1,64; 2,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,28</t>
+          <t>2,09; 3,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,44</t>
+          <t>1,46; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,14</t>
+          <t>1,19; 2,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,23</t>
+          <t>1,32; 2,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,38</t>
+          <t>0,72; 1,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,17</t>
+          <t>1,52; 2,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,57</t>
+          <t>1,82; 2,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,74</t>
+          <t>1,17; 1,81</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no desayuna</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10332</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9838</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3949</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10675</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20170</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1921; 12665</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5437; 18885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2068; 13686</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1974; 11305</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4578; 18261</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1082; 11411</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4937; 19374</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11854; 31386</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4701; 18551</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19351</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12682</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6967</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12038</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11050</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4893</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31389</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23733</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12215; 29226</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6829; 22235</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2987; 13715</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7187; 20495</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5190; 20620</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1932; 10766</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21449; 43111</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14953; 35727</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6059; 20733</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3772</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1886</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8143</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4506</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1024; 11070</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>854; 7365</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4027</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>980; 10244</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5885</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6229</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3362; 16971</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1780; 10896</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13191</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15262</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13918</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6774</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17124</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19571</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20692</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6948; 21581</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7764; 26157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7655; 23212</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>943; 9895</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1090; 10799</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2756; 14666</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10852; 27501</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11383; 32018</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12501; 32119</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5335</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5064</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6538</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13072</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1791; 10755</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3133; 17320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>990; 10480</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5988</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1890; 10812</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2647; 12641</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6128; 23730</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1837; 11643</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2902</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8986</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3144</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9124</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6046</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16086</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>852; 7900</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4012; 18754</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2984; 13914</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>942; 7922</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>979; 9445</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3908; 16458</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2740; 12460</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6651; 23420</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9217; 25645</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9105</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20297</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11313</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>11653</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16199</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>20758</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36496</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15275</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4581; 17667</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12008; 31772</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5019; 20536</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5769; 20098</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9042; 25418</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1017; 9778</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12123; 31252</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25721; 50627</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8187; 26028</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11202</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>11877</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>15474</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>7392</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>26675</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>16389</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>15794</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5687; 19084</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3967; 17965</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6081; 21322</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9430; 24867</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3242; 14759</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>981; 8984</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>17951; 38682</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9333; 27364</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>8902; 26385</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>88935</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>64378</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>61369</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>35232</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>121092</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>150304</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>99610</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>53617; 86118</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>71506; 111914</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>49617; 83495</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>40235; 68593</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>46793; 80458</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>25658; 49321</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>100811; 146599</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>126625; 179043</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>80945; 125550</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>